--- a/var-gen.xlsx
+++ b/var-gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\cbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F17AC-0613-4267-8953-909BA98DF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556BB30-97A8-495D-B6D3-868C74565B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DF8B5219-CE89-437E-8EE2-14C06188A59A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>fr</t>
   </si>
@@ -339,9 +339,6 @@
     <t>cD</t>
   </si>
   <si>
-    <t>[true, false]</t>
-  </si>
-  <si>
     <t>Adelantado</t>
   </si>
   <si>
@@ -400,6 +397,147 @@
   </si>
   <si>
     <t>rI</t>
+  </si>
+  <si>
+    <t>[true, false, false]</t>
+  </si>
+  <si>
+    <t>Capacitance of individual element</t>
+  </si>
+  <si>
+    <t>Maximum operating voltage</t>
+  </si>
+  <si>
+    <t>Number of capacitors in series</t>
+  </si>
+  <si>
+    <t>Number of capacitors in parallel</t>
+  </si>
+  <si>
+    <t>Final reactive power</t>
+  </si>
+  <si>
+    <t>Final power factor</t>
+  </si>
+  <si>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Final apparent power</t>
+  </si>
+  <si>
+    <t>Cantidades</t>
+  </si>
+  <si>
+    <t>Capacitancia del elemento individual</t>
+  </si>
+  <si>
+    <t>Tensión máxima de funcionamiento</t>
+  </si>
+  <si>
+    <t>Número de condensadores en serie</t>
+  </si>
+  <si>
+    <t>Número de condensadores en paralelo</t>
+  </si>
+  <si>
+    <t>potencia reactiva final</t>
+  </si>
+  <si>
+    <t>potencia aparente final</t>
+  </si>
+  <si>
+    <t>Factor de potencia final</t>
+  </si>
+  <si>
+    <t>Quantités</t>
+  </si>
+  <si>
+    <t>Capacité de l'élément individuel</t>
+  </si>
+  <si>
+    <t>Tension de fonctionnement maximale</t>
+  </si>
+  <si>
+    <t>Nombre de condensateurs en série</t>
+  </si>
+  <si>
+    <t>Nombre de condensateurs en parallèle</t>
+  </si>
+  <si>
+    <t>Puissance réactive finale</t>
+  </si>
+  <si>
+    <t>Puissance apparente finale</t>
+  </si>
+  <si>
+    <t>Facteur de puissance final</t>
+  </si>
+  <si>
+    <t>Available capacitor's capacitance</t>
+  </si>
+  <si>
+    <t>Available capacitor's max operating voltage</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>Number of capacitors in parallel for 1 phase</t>
+  </si>
+  <si>
+    <t>Number of capacitors in series for 1 phase</t>
+  </si>
+  <si>
+    <t>Number of capacitors in series for 3 phase, star</t>
+  </si>
+  <si>
+    <t>Number of capacitors in parallel for 3 phase, star</t>
+  </si>
+  <si>
+    <t>Number of capacitors in series for 3 phase, delta</t>
+  </si>
+  <si>
+    <t>Number of capacitors in parallel for 3 phase, delta</t>
+  </si>
+  <si>
+    <t>ncs</t>
+  </si>
+  <si>
+    <t>ncp</t>
+  </si>
+  <si>
+    <t>ncss</t>
+  </si>
+  <si>
+    <t>ncps</t>
+  </si>
+  <si>
+    <t>ncsd</t>
+  </si>
+  <si>
+    <t>ncpd</t>
+  </si>
+  <si>
+    <t>Added capacitive reactance</t>
+  </si>
+  <si>
+    <t>Réactance capacitive ajoutée</t>
+  </si>
+  <si>
+    <t>Reactancia capacitiva añadida</t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fpf</t>
   </si>
 </sst>
 </file>
@@ -776,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05BF4C0-D583-4E35-90CD-7A8E8F7BD1C3}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +952,7 @@
       </c>
       <c r="O1" s="1" t="str">
         <f>_xlfn.CONCAT("const l=[",I:I,",",J:J,",",K:K,"];")</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1417,13 +1555,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
         <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="4"/>
@@ -1444,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="4"/>
@@ -1471,13 +1609,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" ref="I26:I51" si="7">IF(ISBLANK(B26),"",IF(ROW()=1,"[","")&amp;""""&amp;B26&amp;""""&amp;IF(ISBLANK(B27),"]",","))</f>
@@ -1498,13 +1636,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -1525,25 +1663,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
-        <v>"Required reactive power"]</v>
+        <v>"Required reactive power",</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="8"/>
-        <v>"Potencia reactiva requerida"]</v>
+        <v>"Potencia reactiva requerida",</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="9"/>
-        <v>"Puissance réactive requise"]</v>
+        <v>"Puissance réactive requise",</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1551,17 +1689,26 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
       <c r="I29" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Quantities",</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Cantidades",</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Quantités",</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1569,17 +1716,26 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Capacitance of individual element",</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Capacitancia del elemento individual",</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Capacité de l'élément individuel",</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1587,17 +1743,26 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Maximum operating voltage",</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Tensión máxima de funcionamiento",</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Tension de fonctionnement maximale",</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1605,17 +1770,26 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Number of capacitors in series",</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Número de condensadores en serie",</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Nombre de condensateurs en série",</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1623,17 +1797,26 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Number of capacitors in parallel",</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Número de condensadores en paralelo",</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Nombre de condensateurs en parallèle",</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1641,17 +1824,26 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Added capacitive reactance",</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Reactancia capacitiva añadida",</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Réactance capacitive ajoutée",</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,17 +1851,26 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Final reactive power",</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"potencia reactiva final",</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Puissance réactive finale",</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1677,17 +1878,26 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Final apparent power",</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"potencia aparente final",</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Puissance apparente finale",</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1695,17 +1905,26 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"Final power factor"]</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"Factor de potencia final"]</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>"Facteur de puissance final"]</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1969,13 +2188,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0E6BF8-F39B-45B3-ADD1-787D3ABC96A2}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1994,7 +2213,7 @@
       </c>
       <c r="G1" t="str">
         <f ca="1">"const defaultSettings ={"&amp;_xlfn.CONCAT(E:E)&amp;"};"</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":661,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":84,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0};</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2005,11 +2224,11 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E50" si="0">IF(ISBLANK(B2), "",""""&amp;B2&amp;""":"&amp;C2&amp;IF(ISBLANK(C3),"",","))</f>
-        <v>"sV":[true, false],</v>
+        <v>"sV":[true, false, false],</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2036,11 +2255,11 @@
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*1000,0)</f>
-        <v>661</v>
+        <v>84</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"v":661,</v>
+        <v>"v":84,</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2184,7 +2403,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2241,10 +2460,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2256,7 +2475,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -2271,10 +2490,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2286,176 +2505,284 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>"rI":0</v>
+        <v>"rI":0,</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ac":1,</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"av":500,</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncs":0,</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncp":0,</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncss":0,</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncps":0,</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncsd":0,</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"ncpd":0,</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"cri":0,</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"fr":0,</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+        <v>"fa":0,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+        <v>"fpf":0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2497,13 +2824,13 @@
       </c>
       <c r="C1" s="3" t="str">
         <f>text!O1</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="str">
         <f ca="1">settings!G1</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false],"pA":false,"v":661,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":84,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0};</v>
       </c>
     </row>
   </sheetData>

--- a/var-gen.xlsx
+++ b/var-gen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\git\cbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556BB30-97A8-495D-B6D3-868C74565B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B6A01-1CFB-4E33-A73C-814E037313F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DF8B5219-CE89-437E-8EE2-14C06188A59A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF8B5219-CE89-437E-8EE2-14C06188A59A}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="183">
   <si>
     <t>fr</t>
   </si>
@@ -270,12 +270,6 @@
     <t>Required capacitance</t>
   </si>
   <si>
-    <t>when connected in delta</t>
-  </si>
-  <si>
-    <t>when connected in star</t>
-  </si>
-  <si>
     <t>Conditions</t>
   </si>
   <si>
@@ -288,12 +282,6 @@
     <t>Capacité requise</t>
   </si>
   <si>
-    <t>lorsqu'il est connecté en delta</t>
-  </si>
-  <si>
-    <t>lorsqu'il est connecté en étoile</t>
-  </si>
-  <si>
     <t>Requisitos</t>
   </si>
   <si>
@@ -306,12 +294,6 @@
     <t>Capacitancia requerida</t>
   </si>
   <si>
-    <t>cuando se conecta en delta</t>
-  </si>
-  <si>
-    <t>cuando se conecta en estrella</t>
-  </si>
-  <si>
     <t>rpf</t>
   </si>
   <si>
@@ -538,6 +520,72 @@
   </si>
   <si>
     <t>fpf</t>
+  </si>
+  <si>
+    <t>cris</t>
+  </si>
+  <si>
+    <t>frs</t>
+  </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>fpfs</t>
+  </si>
+  <si>
+    <t>Added capacitive reactance star</t>
+  </si>
+  <si>
+    <t>Final reactive power star</t>
+  </si>
+  <si>
+    <t>Final apparent power star</t>
+  </si>
+  <si>
+    <t>Final power factor star</t>
+  </si>
+  <si>
+    <t>crid</t>
+  </si>
+  <si>
+    <t>frd</t>
+  </si>
+  <si>
+    <t>fad</t>
+  </si>
+  <si>
+    <t>fpfd</t>
+  </si>
+  <si>
+    <t>Added capacitive reactance delta</t>
+  </si>
+  <si>
+    <t>Final reactive power delta</t>
+  </si>
+  <si>
+    <t>Final apparent power delta</t>
+  </si>
+  <si>
+    <t>Final power factor delta</t>
+  </si>
+  <si>
+    <t>When connected in delta</t>
+  </si>
+  <si>
+    <t>When connected in star</t>
+  </si>
+  <si>
+    <t>Cuando se conecta en delta</t>
+  </si>
+  <si>
+    <t>Cuando se conecta en estrella</t>
+  </si>
+  <si>
+    <t>Lorsqu'il est connecté en delta</t>
+  </si>
+  <si>
+    <t>Lorsqu'il est connecté en étoile</t>
   </si>
 </sst>
 </file>
@@ -914,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05BF4C0-D583-4E35-90CD-7A8E8F7BD1C3}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +1000,7 @@
       </c>
       <c r="O1" s="1" t="str">
         <f>_xlfn.CONCAT("const l=[",I:I,",",J:J,",",K:K,"];")</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","When connected in delta","When connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","Cuando se conecta en delta","Cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","Lorsqu'il est connecté en delta","Lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1396,10 +1444,10 @@
         <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="4"/>
@@ -1423,10 +1471,10 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="4"/>
@@ -1450,10 +1498,10 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="4"/>
@@ -1477,10 +1525,10 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="4"/>
@@ -1501,25 +1549,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="4"/>
-        <v>"when connected in delta",</v>
+        <v>"When connected in delta",</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="5"/>
-        <v>"cuando se conecta en delta",</v>
+        <v>"Cuando se conecta en delta",</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="6"/>
-        <v>"lorsqu'il est connecté en delta",</v>
+        <v>"Lorsqu'il est connecté en delta",</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1528,25 +1576,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="4"/>
-        <v>"when connected in star",</v>
+        <v>"When connected in star",</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="5"/>
-        <v>"cuando se conecta en estrella",</v>
+        <v>"Cuando se conecta en estrella",</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="6"/>
-        <v>"lorsqu'il est connecté en étoile",</v>
+        <v>"Lorsqu'il est connecté en étoile",</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1555,13 +1603,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="4"/>
@@ -1582,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="4"/>
@@ -1609,13 +1657,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" ref="I26:I51" si="7">IF(ISBLANK(B26),"",IF(ROW()=1,"[","")&amp;""""&amp;B26&amp;""""&amp;IF(ISBLANK(B27),"]",","))</f>
@@ -1636,13 +1684,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -1663,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -1690,13 +1738,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="7"/>
@@ -1717,13 +1765,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -1744,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -1771,13 +1819,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -1798,13 +1846,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -1825,13 +1873,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -1852,13 +1900,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -1879,13 +1927,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -1906,13 +1954,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -2188,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0E6BF8-F39B-45B3-ADD1-787D3ABC96A2}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2261,7 @@
       </c>
       <c r="G1" t="str">
         <f ca="1">"const defaultSettings ={"&amp;_xlfn.CONCAT(E:E)&amp;"};"</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":84,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":220,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0,"cris":0,"frs":0,"fas":0,"fpfs":0,"crid":0,"frd":0,"fad":0,"fpfd":0};</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,7 +2272,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E50" si="0">IF(ISBLANK(B2), "",""""&amp;B2&amp;""":"&amp;C2&amp;IF(ISBLANK(C3),"",","))</f>
@@ -2255,11 +2303,11 @@
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*1000,0)</f>
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>"v":84,</v>
+        <v>"v":220,</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2388,7 +2436,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2400,10 +2448,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2415,10 +2463,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2430,10 +2478,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2445,10 +2493,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2460,10 +2508,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2475,10 +2523,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2490,10 +2538,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2505,10 +2553,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2520,10 +2568,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2535,10 +2583,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C23">
         <v>500</v>
@@ -2550,10 +2598,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2565,10 +2613,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2580,10 +2628,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
         <v>151</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2595,10 +2643,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2610,10 +2658,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2625,10 +2673,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
         <v>154</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2640,10 +2688,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2655,7 +2703,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -2670,10 +2718,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2685,65 +2733,137 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>"fpf":0</v>
+        <v>"fpf":0,</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"cris":0,</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"frs":0,</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"fas":0,</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"fpfs":0,</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"crid":0,</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"frd":0,</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"fad":0,</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>"fpfd":0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,13 +2944,13 @@
       </c>
       <c r="C1" s="3" t="str">
         <f>text!O1</f>
-        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","when connected in delta","when connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","cuando se conecta en delta","cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","lorsqu'il est connecté en delta","lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
+        <v>const l=[["English","us","Capacitor bank calculations","Mains info","Private policy","Terms and conditions","Hey, we use cookies on your device to locally store your data!","Alright, go-ahead","No of phases","Line voltage","Frequency","Active power","Current power factor","Reactive power","Apparent power","Lagging","Line current","Requirements","Required power factor","Required capacitive reactive power","Required capacitance","When connected in delta","When connected in star","Leading","The required value for the power factor cannot be less than the existing one.","Required line current","Required apparent power","Required reactive power","Quantities","Capacitance of individual element","Maximum operating voltage","Number of capacitors in series","Number of capacitors in parallel","Added capacitive reactance","Final reactive power","Final apparent power","Final power factor"],["Español","mx","Cálculos del banco de capacitores","Información de red","Política privada","Términos y condiciones","¡Oye, usamos cookies en tu dispositivo para almacenar localmente tus datos!","Muy bien, adelante","Nº de fases","Linea de voltaje","Frecuencia","Potencia activo","factor de potencia actual","Potencia reactiva","Potencia aparente","Atrasado","Corriente de línea","Requisitos","Factor de potencia requerido","Potencia reactiva capacitiva requerida","Capacitancia requerida","Cuando se conecta en delta","Cuando se conecta en estrella","Adelantado","El valor requerido para el factor de potencia no puede ser menor que el existente.","Corriente de línea requerida","Potencia aparente requerida","Potencia reactiva requerida","Cantidades","Capacitancia del elemento individual","Tensión máxima de funcionamiento","Número de condensadores en serie","Número de condensadores en paralelo","Reactancia capacitiva añadida","potencia reactiva final","potencia aparente final","Factor de potencia final"],["Français","fr","Calculs de banc de condensateurs","Informations sur le secteur","Politique privée","Termes et conditions","Hé, nous utilisons des cookies sur votre appareil pour stocker localement vos données !","D'accord, allez-y","Nbre de phases","Tension de ligne","La fréquence","Puissance active","Facteur de puissance actuel","Puissance réactive","Puissance apparente","Retard","Courant de ligne","Conditions","Facteur de puissance requis","Puissance réactive capacitive requise","Capacité requise","Lorsqu'il est connecté en delta","Lorsqu'il est connecté en étoile","Avance","La valeur requise pour le facteur de puissance ne peut pas être inférieure à celle existante.","Courant de ligne requis","Puissance apparente requise","Puissance réactive requise","Quantités","Capacité de l'élément individuel","Tension de fonctionnement maximale","Nombre de condensateurs en série","Nombre de condensateurs en parallèle","Réactance capacitive ajoutée","Puissance réactive finale","Puissance apparente finale","Facteur de puissance final"]];</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="str">
         <f ca="1">settings!G1</f>
-        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":84,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0};</v>
+        <v>const defaultSettings ={"sL":0,"sV":[true, false, false],"pA":false,"v":220,"nP":3,"vol":1000,"w":300,"q":225,"s":375,"f":60,"cpf":0.8,"i":0.21650635094611,"rpf":1,"rQC":0,"c":0,"cS":0,"cD":0,"rpfs":1,"rQ":0,"rS":0,"rI":0,"ac":1,"av":500,"ncs":0,"ncp":0,"ncss":0,"ncps":0,"ncsd":0,"ncpd":0,"cri":0,"fr":0,"fa":0,"fpf":0,"cris":0,"frs":0,"fas":0,"fpfs":0,"crid":0,"frd":0,"fad":0,"fpfd":0};</v>
       </c>
     </row>
   </sheetData>
